--- a/results.xlsx
+++ b/results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagaprasad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagaprasad/PycharmProjects/cse691_homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="1760" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>Step 1</t>
   </si>
@@ -79,15 +79,43 @@
   <si>
     <t>NumPy</t>
   </si>
+  <si>
+    <t>Execution time in secs</t>
+  </si>
+  <si>
+    <t>Faster is</t>
+  </si>
+  <si>
+    <t>Python/NumPy</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,7 +129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -109,18 +137,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,6 +218,2127 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Comparison - Python</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs NumPy</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Steps 1-9, 11, 14 &amp; 15</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$2:$B$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Step 1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Step 2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Step 3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Step 4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Step 5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Step 6</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Step 7</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Step 8</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Step 9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Step 11</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Step 14</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Step 15</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5.96046447753906E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9073486328125E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.14576721191406E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28746032714843E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.86102294921875E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9073486328125E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.19209289550781E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.96046447753906E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.69820404052734E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.09672546386718E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19209289550781E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.40666961669921E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.59740447998046E-5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.00106716156005859</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.28746032714843E-5</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.00414609909057617</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.69277191162109E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.60826873779296E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000111103057861328</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.00232291221618652</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.71797180175781E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.48634338378906E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.69277191162109E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="186651984"/>
+        <c:axId val="186654304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="186651984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186654304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186654304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="186651984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance Comparison - Python vs NumPy</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Steps 13, 12 &amp; 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$A$26:$B$31</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>NumPy</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Step 13</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Step 12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Step 10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0185480117797851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000375986099243164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.350394010543823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000164031982421875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.423280954360961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00113415718078613</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="187056368"/>
+        <c:axId val="187058688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="187056368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187058688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="187058688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187056368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,332 +2604,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2">
-        <v>7.8678131103515608E-6</v>
+      <c r="C2" s="3">
+        <v>5.96046447753906E-6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2">
-        <v>3.09944152832031E-6</v>
-      </c>
+      <c r="C3" s="3">
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.09944152832031E-6</v>
+      <c r="C4" s="3">
+        <v>2.14576721191406E-6</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="3">
         <v>1.28746032714843E-5</v>
       </c>
+      <c r="D5" s="4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2">
-        <v>3.09944152832031E-6</v>
+      <c r="C6" s="3">
+        <v>2.86102294921875E-6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="3">
         <v>1.9073486328125E-6</v>
       </c>
+      <c r="D7" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
+      <c r="C8" s="3">
+        <v>1.19209289550781E-6</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="3">
         <v>9.5367431640625E-7</v>
       </c>
+      <c r="D9" s="4"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="3">
         <v>5.96046447753906E-6</v>
       </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
-        <v>5.6028366088867099E-5</v>
-      </c>
+      <c r="C11" s="3">
+        <v>5.6982040405273397E-5</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
-        <v>9.0599060058593699E-6</v>
+      <c r="C12" s="3">
+        <v>1.09672546386718E-5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
-        <v>8.1062316894531199E-6</v>
-      </c>
+      <c r="C13" s="3">
+        <v>1.19209289550781E-5</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="3">
         <v>1.4066696166992099E-5</v>
       </c>
+      <c r="D14" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="3">
         <v>1.5974044799804599E-5</v>
       </c>
+      <c r="D15" s="4"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>1.25098228454589E-3</v>
+      <c r="C16" s="1">
+        <v>1.0671615600585901E-3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.19209289550781E-5</v>
-      </c>
+      <c r="C17" s="3">
+        <v>1.28746032714843E-5</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>4.241943359375E-3</v>
+      <c r="C18" s="1">
+        <v>4.1460990905761701E-3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2">
-        <v>1.88350677490234E-5</v>
-      </c>
+      <c r="C19" s="3">
+        <v>1.69277191162109E-5</v>
+      </c>
+      <c r="D19" s="4"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.6082687377929606E-5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.11103057861328E-4</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.32291221618652E-3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2.7179718017578101E-5</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7.4863433837890598E-5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.69277191162109E-5</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.8548011779785101E-2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.7598609924316401E-4</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.35039401054382302</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.64031982421875E-4</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
-        <v>0.430850028991699</v>
+      <c r="C30" s="1">
+        <v>0.42328095436096103</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
-        <v>6.4206123352050705E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5.0783157348632799E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.9883804321288995E-5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>0.36544013023376398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>1.30891799926757E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25">
-        <v>1.6356718540191599</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>1.9502639770507799E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>2.3930072784423802E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2.1934509277343699E-5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7.7962875366210897E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.9073486328125E-5</v>
-      </c>
+      <c r="C31" s="1">
+        <v>1.13415718078613E-3</v>
+      </c>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
+  <mergeCells count="30">
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>